--- a/server/main.xlsx
+++ b/server/main.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -611,7 +611,7 @@
         <v>wallet</v>
       </c>
       <c r="Q4" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="5">
@@ -664,7 +664,7 @@
         <v>wallet</v>
       </c>
       <c r="Q5" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="6">
@@ -717,7 +717,7 @@
         <v>wallet</v>
       </c>
       <c r="Q6" t="str">
-        <v>Verification in progress...</v>
+        <v>Rejected</v>
       </c>
     </row>
     <row r="7">
@@ -876,7 +876,7 @@
         <v>wallet</v>
       </c>
       <c r="Q9" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="10">
@@ -929,7 +929,7 @@
         <v>wallet</v>
       </c>
       <c r="Q10" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="11">
@@ -982,7 +982,7 @@
         <v>wallet</v>
       </c>
       <c r="Q11" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="12">
@@ -1035,7 +1035,7 @@
         <v>wallet</v>
       </c>
       <c r="Q12" t="str">
-        <v>Verification in progress...</v>
+        <v>Rejected</v>
       </c>
     </row>
     <row r="13">
@@ -1088,7 +1088,7 @@
         <v>wallet</v>
       </c>
       <c r="Q13" t="str">
-        <v>Verification in progress...</v>
+        <v>Rejected</v>
       </c>
     </row>
     <row r="14">
@@ -1141,7 +1141,7 @@
         <v>wallet</v>
       </c>
       <c r="Q14" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="15">
@@ -1194,7 +1194,7 @@
         <v>wallet</v>
       </c>
       <c r="Q15" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1247,7 @@
         <v>wallet</v>
       </c>
       <c r="Q16" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="17">
@@ -1300,7 +1300,7 @@
         <v>wallet</v>
       </c>
       <c r="Q17" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="18">
@@ -1353,7 +1353,7 @@
         <v>wallet</v>
       </c>
       <c r="Q18" t="str">
-        <v>Verification in progress...</v>
+        <v>Verified</v>
       </c>
     </row>
     <row r="19">
@@ -1727,9 +1727,1017 @@
         <v>Verification in progress...</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3:07:18 pm</v>
+      </c>
+      <c r="C26" t="str">
+        <v>041124150718</v>
+      </c>
+      <c r="D26" t="str">
+        <v>order_PHBGSOzhvXH4xg</v>
+      </c>
+      <c r="E26" t="str">
+        <v>21</v>
+      </c>
+      <c r="F26" t="str">
+        <v>21B81A05W9</v>
+      </c>
+      <c r="G26" t="str">
+        <v>CHIGIRINTHA SRITHIKA</v>
+      </c>
+      <c r="H26" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I26" t="str">
+        <v>E</v>
+      </c>
+      <c r="J26" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K26" t="str">
+        <v>prabhakarreddy789@gmail.com</v>
+      </c>
+      <c r="L26" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M26" t="str">
+        <v>I</v>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26">
+        <v>100000</v>
+      </c>
+      <c r="P26" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B27" t="str">
+        <v>4:31:34 pm</v>
+      </c>
+      <c r="C27" t="str">
+        <v>041124163134</v>
+      </c>
+      <c r="D27" t="str">
+        <v>order_PHChLbyzM2KFBt</v>
+      </c>
+      <c r="E27" t="str">
+        <v>21</v>
+      </c>
+      <c r="F27" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G27" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H27" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I27" t="str">
+        <v>E</v>
+      </c>
+      <c r="J27" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K27" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L27" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M27" t="str">
+        <v>I</v>
+      </c>
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27">
+        <v>120000</v>
+      </c>
+      <c r="P27" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B28" t="str">
+        <v>4:33:04 pm</v>
+      </c>
+      <c r="C28" t="str">
+        <v>041124163303</v>
+      </c>
+      <c r="D28" t="str">
+        <v>order_PHCixDJ0DyUM6B</v>
+      </c>
+      <c r="E28" t="str">
+        <v>21</v>
+      </c>
+      <c r="F28" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G28" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H28" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I28" t="str">
+        <v>E</v>
+      </c>
+      <c r="J28" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K28" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L28" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M28" t="str">
+        <v>I</v>
+      </c>
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28">
+        <v>120000</v>
+      </c>
+      <c r="P28" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B29" t="str">
+        <v>4:38:06 pm</v>
+      </c>
+      <c r="C29" t="str">
+        <v>041124163806</v>
+      </c>
+      <c r="D29" t="str">
+        <v>order_PHCoMH0pXxonYg</v>
+      </c>
+      <c r="E29" t="str">
+        <v>21</v>
+      </c>
+      <c r="F29" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G29" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H29" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I29" t="str">
+        <v>E</v>
+      </c>
+      <c r="J29" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K29" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L29" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M29" t="str">
+        <v>I</v>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29">
+        <v>120000</v>
+      </c>
+      <c r="P29" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B30" t="str">
+        <v>4:39:11 pm</v>
+      </c>
+      <c r="C30" t="str">
+        <v>041124163911</v>
+      </c>
+      <c r="D30" t="str">
+        <v>order_PHCpPGSQf506qg</v>
+      </c>
+      <c r="E30" t="str">
+        <v>21</v>
+      </c>
+      <c r="F30" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G30" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H30" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I30" t="str">
+        <v>E</v>
+      </c>
+      <c r="J30" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K30" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L30" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M30" t="str">
+        <v>I</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30">
+        <v>120000</v>
+      </c>
+      <c r="P30" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B31" t="str">
+        <v>4:45:03 pm</v>
+      </c>
+      <c r="C31" t="str">
+        <v>041124164503</v>
+      </c>
+      <c r="D31" t="str">
+        <v>order_PHCvUBrMMewvwL</v>
+      </c>
+      <c r="E31" t="str">
+        <v>21</v>
+      </c>
+      <c r="F31" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G31" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H31" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I31" t="str">
+        <v>E</v>
+      </c>
+      <c r="J31" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K31" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L31" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M31" t="str">
+        <v>I</v>
+      </c>
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31">
+        <v>120000</v>
+      </c>
+      <c r="P31" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B32" t="str">
+        <v>4:47:25 pm</v>
+      </c>
+      <c r="C32" t="str">
+        <v>041124164725</v>
+      </c>
+      <c r="D32" t="str">
+        <v>order_PHCyB6PI0gtpum</v>
+      </c>
+      <c r="E32" t="str">
+        <v>21</v>
+      </c>
+      <c r="F32" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G32" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H32" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I32" t="str">
+        <v>E</v>
+      </c>
+      <c r="J32" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K32" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L32" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M32" t="str">
+        <v>I</v>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32">
+        <v>120000</v>
+      </c>
+      <c r="P32" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4/11/2024</v>
+      </c>
+      <c r="B33" t="str">
+        <v>4:48:13 pm</v>
+      </c>
+      <c r="C33" t="str">
+        <v>041124164813</v>
+      </c>
+      <c r="D33" t="str">
+        <v>order_PHCyzmcdAauv5C</v>
+      </c>
+      <c r="E33" t="str">
+        <v>21</v>
+      </c>
+      <c r="F33" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G33" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H33" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I33" t="str">
+        <v>E</v>
+      </c>
+      <c r="J33" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K33" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L33" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M33" t="str">
+        <v>I</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33">
+        <v>120000</v>
+      </c>
+      <c r="P33" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5/11/2024</v>
+      </c>
+      <c r="B34" t="str">
+        <v>2:11:46 pm</v>
+      </c>
+      <c r="C34" t="str">
+        <v>051124141146</v>
+      </c>
+      <c r="D34" t="str">
+        <v>order_PHYqu4qAV4BPru</v>
+      </c>
+      <c r="E34" t="str">
+        <v>21</v>
+      </c>
+      <c r="F34" t="str">
+        <v>21B81A05V3</v>
+      </c>
+      <c r="G34" t="str">
+        <v>VENISHETTY SAI SHREYAS</v>
+      </c>
+      <c r="H34" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I34" t="str">
+        <v>E</v>
+      </c>
+      <c r="J34" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K34" t="str">
+        <v>shreyasvenishetty6@gmail.com</v>
+      </c>
+      <c r="L34" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M34" t="str">
+        <v>I</v>
+      </c>
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34">
+        <v>120000</v>
+      </c>
+      <c r="P34" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B35" t="str">
+        <v>5:00:31 pm</v>
+      </c>
+      <c r="C35" t="str">
+        <v>061124170031</v>
+      </c>
+      <c r="D35" t="str">
+        <v>order_PI0G8p1mdExRT1</v>
+      </c>
+      <c r="E35" t="str">
+        <v>21</v>
+      </c>
+      <c r="F35" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G35" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H35" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I35" t="str">
+        <v>E</v>
+      </c>
+      <c r="J35" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K35" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L35" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M35" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35">
+        <v>120000</v>
+      </c>
+      <c r="P35" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B36" t="str">
+        <v>7:26:13 pm</v>
+      </c>
+      <c r="C36" t="str">
+        <v>061124192613</v>
+      </c>
+      <c r="D36" t="str">
+        <v>order_PI2kA90WOIu56p</v>
+      </c>
+      <c r="E36" t="str">
+        <v>21</v>
+      </c>
+      <c r="F36" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G36" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H36" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I36" t="str">
+        <v>E</v>
+      </c>
+      <c r="J36" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K36" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L36" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M36" t="str">
+        <v>I</v>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36">
+        <v>120000</v>
+      </c>
+      <c r="P36" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B37" t="str">
+        <v>7:32:25 pm</v>
+      </c>
+      <c r="C37" t="str">
+        <v>061124193225</v>
+      </c>
+      <c r="D37" t="str">
+        <v>order_PI2qfAXBbAMwYN</v>
+      </c>
+      <c r="E37" t="str">
+        <v>21</v>
+      </c>
+      <c r="F37" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G37" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H37" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I37" t="str">
+        <v>E</v>
+      </c>
+      <c r="J37" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K37" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L37" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M37" t="str">
+        <v>I</v>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37">
+        <v>120000</v>
+      </c>
+      <c r="P37" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Verification in progress...</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B38" t="str">
+        <v>7:43:42 pm</v>
+      </c>
+      <c r="C38" t="str">
+        <v>061124194342</v>
+      </c>
+      <c r="D38" t="str">
+        <v>order_PI32f90wbU1qiq</v>
+      </c>
+      <c r="E38" t="str">
+        <v>21</v>
+      </c>
+      <c r="F38" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G38" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H38" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I38" t="str">
+        <v>E</v>
+      </c>
+      <c r="J38" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K38" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L38" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M38" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38">
+        <v>120000</v>
+      </c>
+      <c r="P38" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8:34:51 pm</v>
+      </c>
+      <c r="C39" t="str">
+        <v>061124203451</v>
+      </c>
+      <c r="D39" t="str">
+        <v>order_PI3uQowjqHLHIX</v>
+      </c>
+      <c r="E39" t="str">
+        <v>21</v>
+      </c>
+      <c r="F39" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G39" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H39" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I39" t="str">
+        <v>E</v>
+      </c>
+      <c r="J39" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K39" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L39" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M39" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39">
+        <v>120000</v>
+      </c>
+      <c r="P39" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B40" t="str">
+        <v>9:21:50 pm</v>
+      </c>
+      <c r="C40" t="str">
+        <v>061124212150</v>
+      </c>
+      <c r="D40" t="str">
+        <v>order_PI4iIu2BFngZO8</v>
+      </c>
+      <c r="E40" t="str">
+        <v>21</v>
+      </c>
+      <c r="F40" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G40" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H40" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I40" t="str">
+        <v>E</v>
+      </c>
+      <c r="J40" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K40" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L40" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M40" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40">
+        <v>120000</v>
+      </c>
+      <c r="P40" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Rejected</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B41" t="str">
+        <v>9:25:24 pm</v>
+      </c>
+      <c r="C41" t="str">
+        <v>061124212524</v>
+      </c>
+      <c r="D41" t="str">
+        <v>order_PI4luyvYl2NxQL</v>
+      </c>
+      <c r="E41" t="str">
+        <v>21</v>
+      </c>
+      <c r="F41" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G41" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H41" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I41" t="str">
+        <v>E</v>
+      </c>
+      <c r="J41" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K41" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L41" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M41" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41">
+        <v>120000</v>
+      </c>
+      <c r="P41" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B42" t="str">
+        <v>9:52:15 pm</v>
+      </c>
+      <c r="C42" t="str">
+        <v>061124215215</v>
+      </c>
+      <c r="D42" t="str">
+        <v>order_PI5ESyFNf8d7ru</v>
+      </c>
+      <c r="E42" t="str">
+        <v>21</v>
+      </c>
+      <c r="F42" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G42" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H42" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I42" t="str">
+        <v>E</v>
+      </c>
+      <c r="J42" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K42" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L42" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M42" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42">
+        <v>120000</v>
+      </c>
+      <c r="P42" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B43" t="str">
+        <v>9:55:14 pm</v>
+      </c>
+      <c r="C43" t="str">
+        <v>061124215514</v>
+      </c>
+      <c r="D43" t="str">
+        <v>order_PI5Hb5q9Ov1uGd</v>
+      </c>
+      <c r="E43" t="str">
+        <v>21</v>
+      </c>
+      <c r="F43" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G43" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H43" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I43" t="str">
+        <v>E</v>
+      </c>
+      <c r="J43" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K43" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L43" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M43" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43">
+        <v>120000</v>
+      </c>
+      <c r="P43" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>6/11/2024</v>
+      </c>
+      <c r="B44" t="str">
+        <v>10:35:37 pm</v>
+      </c>
+      <c r="C44" t="str">
+        <v>061124223537</v>
+      </c>
+      <c r="D44" t="str">
+        <v>order_PI5yDghUhXmMEj</v>
+      </c>
+      <c r="E44" t="str">
+        <v>21</v>
+      </c>
+      <c r="F44" t="str">
+        <v>21B81A05V9</v>
+      </c>
+      <c r="G44" t="str">
+        <v>SAMRATH REDDY YELAPATI</v>
+      </c>
+      <c r="H44" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="I44" t="str">
+        <v>E</v>
+      </c>
+      <c r="J44" t="str">
+        <v>+917981455290</v>
+      </c>
+      <c r="K44" t="str">
+        <v>samrathghana@gmail.com</v>
+      </c>
+      <c r="L44" t="str">
+        <v>CollegeFee</v>
+      </c>
+      <c r="M44" t="str">
+        <v>IV</v>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44">
+        <v>120000</v>
+      </c>
+      <c r="P44" t="str">
+        <v>wallet</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>Verified</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q44"/>
   </ignoredErrors>
 </worksheet>
 </file>